--- a/static/uploads/qa_data.xlsx
+++ b/static/uploads/qa_data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Transactions" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PurchaseOrders" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Users" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CashFlow" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1259,4 +1260,531 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Client Payment - Acme Corporation</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inflow</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Revenue 4717</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tech Solutions Invoice Payment</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>inflow</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Revenue 4717</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Global Systems Contract Payment</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>18500</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>inflow</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Revenue 4717</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Expected Payment - DataFlow Corp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8200</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inflow</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Revenue 4717</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Monthly Payroll - December</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bill Pay 4091</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>IT Equipment Purchase</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5600</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bill Pay 4091</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Marketing Agency Payment</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bill Pay 4091</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Scheduled Payroll - January</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bill Pay 4091</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Office Supplies Purchase</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Capital One 4709</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Utilities Payment</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>850</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Capital One 4709</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Business Travel Expenses</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Capital One 4709</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Credit Card Payment Received</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>inflow</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Capital One 4709</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Legal Services Payment</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Capital One 4709</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Monthly Internet/Phone</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>450</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>outflow</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Capital One 4709</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>